--- a/biology/Botanique/Asparagus_acutifolius/Asparagus_acutifolius.xlsx
+++ b/biology/Botanique/Asparagus_acutifolius/Asparagus_acutifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asperge sauvage
 Asparagus acutifolius appelée simplement Asperge sauvage est une espèce d'asperges sauvages répandue sur le pourtour méditerranéen, très courante dans le Sud de la France. Elle appartient à la famille des Asparagaceae.
@@ -512,7 +524,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne faut pas confondre l'Asperge sauvage avec l'Asperge des bois ou avec le Tamier commun : il s'agit bien d'espèces différentes, bien que les noms vernaculaires soient souvent mal utilisés. C'est ainsi que, sur les étals, on trouve régulièrement des Asperges des bois et du Tamier commun, sous le nom d’« Asperge sauvage ».
 Dans le Sud de la France, le Tamier commun est désigné par son nom occitan « reponchon » (qui se prononce répountsou, répountchou, ou encore respountchou). Attention, cependant : « reponchon » peut également faire référence à une espèce différente : la Campanule raiponce, mais il s'agit en aucun cas de l'Asperge sauvage.
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle ressemble à Asparagus fallax. Ses pousses du printemps sont comestibles, bien qu'elles soient beaucoup moins grosses que les pousses d'Asparagus officinalis qui sont, elles, commercialisées. La période de récolte peut commencer dès mi-février sur les versants ensoleillés près de la côte en Afrique du Nord, et s'étaler jusqu'à fin avril sur les versants plus ombragés à l'intérieur des terres en méditerranée française. Elle est aussi beaucoup cueillie en Croatie (dans les régions au bord de la mer Adriatique : Istrie, Littoral croate, la côte dalmate), Espagne (Catalogne), en Italie, en Slovénie .
 Les pousses peuvent être bouillies et servies avec de la vinaigrette, ou simplement agrémenter une omelette lors de la Saint Loup, lors des fêtes occitanes.
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">fleurs : petites, jaunes-verdâtre, pédoncules courts, anthères oblongues, une à deux fois plus courtes que le filet
 feuilles : cladodes fasciculés courts et piquants, mucronés, vert foncés, persistants
@@ -612,7 +630,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Asparagus acutifolius  pousse dans les lieux secs et arides, avec des températures chaudes. Cette espèce est répartie dans toute la région Méditerranéenne de France.
 </t>
